--- a/Layout das Tabelas/Apuração Atuação Fixa.xlsx
+++ b/Layout das Tabelas/Apuração Atuação Fixa.xlsx
@@ -13,13 +13,14 @@
     <sheet name="DADOS_PROFESSOR" sheetId="4" r:id="rId4"/>
     <sheet name="TIPO_ATUACAO " sheetId="5" r:id="rId5"/>
     <sheet name="AUTORIZACAO_ATUACAO " sheetId="6" r:id="rId6"/>
+    <sheet name="CONSOLIDACAO_HORISTA" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="341">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -817,12 +818,249 @@
   <si>
     <t>data da autorização, será mensal durante todo o periodo da atuaçao</t>
   </si>
+  <si>
+    <t>NUMBER(12.2)</t>
+  </si>
+  <si>
+    <t>NUMBER(6.2)</t>
+  </si>
+  <si>
+    <t>NUMBER(8.2)</t>
+  </si>
+  <si>
+    <t>NOM_PROCESSO</t>
+  </si>
+  <si>
+    <t>QTD_HORAS_TRABALHADAS</t>
+  </si>
+  <si>
+    <t>VALOR_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>QTDE_HORA_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>COD_VERBA_RH</t>
+  </si>
+  <si>
+    <t>COD_CENTRO_RESULTADO</t>
+  </si>
+  <si>
+    <t>IND_SITUACAO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>FLAG_RETROATIVO</t>
+  </si>
+  <si>
+    <t>IND_APTO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>DT_ALOCACAO_DIA</t>
+  </si>
+  <si>
+    <t>IND_SUBSTITUICAO</t>
+  </si>
+  <si>
+    <t>IND_SUBSTITUICAO_PROF</t>
+  </si>
+  <si>
+    <t>IND_SITUACAO_GRUPO</t>
+  </si>
+  <si>
+    <t>IND_CURSO_EXTENSAO</t>
+  </si>
+  <si>
+    <t>DT_GERACAO</t>
+  </si>
+  <si>
+    <t>DT_GERACAO_DESCONTO</t>
+  </si>
+  <si>
+    <t>DT_GERACAO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>IND_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>COD_TURMA_EXTENSAO</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_ALOCACAO</t>
+  </si>
+  <si>
+    <t>NUMBER(12)</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_TURMA</t>
+  </si>
+  <si>
+    <t>DT_SOLICITACAO_DESCONTO</t>
+  </si>
+  <si>
+    <t>TABELA</t>
+  </si>
+  <si>
+    <t>VARCHAR2(3)</t>
+  </si>
+  <si>
+    <t>IND_PAGAMENTO_ALOCACAO</t>
+  </si>
+  <si>
+    <t>QTD_ALUNOS_MATRICULADOS</t>
+  </si>
+  <si>
+    <t>VAL_A_PAGAR</t>
+  </si>
+  <si>
+    <t>DT_INICIO_ALOCACAO</t>
+  </si>
+  <si>
+    <t>DT_FIM_ALOCACAO</t>
+  </si>
+  <si>
+    <t>COD_SITUACAO_TURMA_EXTENSAO</t>
+  </si>
+  <si>
+    <t>DT_MES_ANO</t>
+  </si>
+  <si>
+    <t>QTD_VAGAS_PREENCHIDAS</t>
+  </si>
+  <si>
+    <t>QTD_VAGAS_OCUPADAS</t>
+  </si>
+  <si>
+    <t>DT_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>VAL_HORA_AULA</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_PERIODO_ACADEMICO</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_FALTA</t>
+  </si>
+  <si>
+    <t>IND_FALTA</t>
+  </si>
+  <si>
+    <t>IND_FALTA_RETROATIVA</t>
+  </si>
+  <si>
+    <t>IND_ABONO_RETROATIVO</t>
+  </si>
+  <si>
+    <t>IND_PAGAR_FALTA_RET</t>
+  </si>
+  <si>
+    <t>CONTRATO_PROFESSOR</t>
+  </si>
+  <si>
+    <t>PK_TURMA</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>IND_ABONO</t>
+  </si>
+  <si>
+    <t>IND_PAGAR_ABONO_RET</t>
+  </si>
+  <si>
+    <t>IND_TIPO_AULA</t>
+  </si>
+  <si>
+    <t>IND_REPOSICAO</t>
+  </si>
+  <si>
+    <t>IND_GERA_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>V_OCORRENCIA</t>
+  </si>
+  <si>
+    <t>DIA_SEMANA</t>
+  </si>
+  <si>
+    <t>DT_INI</t>
+  </si>
+  <si>
+    <t>DT_FIM</t>
+  </si>
+  <si>
+    <t>HORA_INI</t>
+  </si>
+  <si>
+    <t>HORA_FIM</t>
+  </si>
+  <si>
+    <t>DT_SUBSTITUICAO_PROF</t>
+  </si>
+  <si>
+    <t>IND_ENSINO_DISTANCIA</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_COMPOSICAO</t>
+  </si>
+  <si>
+    <t>HH_INICIO_AULA</t>
+  </si>
+  <si>
+    <t>HH_FIM_AULA</t>
+  </si>
+  <si>
+    <t>VAL_COMPOSICAO</t>
+  </si>
+  <si>
+    <t>IND_TELEPRESENCIAL</t>
+  </si>
+  <si>
+    <t>ID_TURNO</t>
+  </si>
+  <si>
+    <t>IND_MODALIDADE</t>
+  </si>
+  <si>
+    <t>DT_INI_VIGENCIA</t>
+  </si>
+  <si>
+    <t>DT_FIM_VIGENCIA</t>
+  </si>
+  <si>
+    <t>COD_CAMPUS_PAI</t>
+  </si>
+  <si>
+    <t>COD_INSTITUICAO_PAI</t>
+  </si>
+  <si>
+    <t>IND_PAGAMENTO_RETROATIVIDADE</t>
+  </si>
+  <si>
+    <t>QTD_HORA_AD_NOT_DIA</t>
+  </si>
+  <si>
+    <t>QTD_HORA_DIA</t>
+  </si>
+  <si>
+    <t>TURNO_TEMPO</t>
+  </si>
+  <si>
+    <t>VARCHAR2(80)</t>
+  </si>
+  <si>
+    <t>IND_DESTINO</t>
+  </si>
+  <si>
+    <t>TIPO_INFO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,6 +1116,28 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -911,14 +1171,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -937,10 +1198,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3608,4 +3901,1195 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E106"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Layout das Tabelas/Apuração Atuação Fixa.xlsx
+++ b/Layout das Tabelas/Apuração Atuação Fixa.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="18960" windowHeight="8520" tabRatio="744"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="18960" windowHeight="8520" tabRatio="744" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ATUACAO_PROFESSOR" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="DADOS_PROFESSOR" sheetId="4" r:id="rId4"/>
     <sheet name="TIPO_ATUACAO " sheetId="5" r:id="rId5"/>
     <sheet name="AUTORIZACAO_ATUACAO " sheetId="6" r:id="rId6"/>
-    <sheet name="CONSOLIDACAO_HORISTA" sheetId="7" r:id="rId7"/>
+    <sheet name="REMUNERACAO_DOCENTE" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1059,8 +1059,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1231,12 +1231,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1315,6 +1320,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1349,6 +1355,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -1524,12 +1531,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
@@ -1538,7 +1545,7 @@
     <col min="5" max="5" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1568,7 +1575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1581,7 +1588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1596,7 +1603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1611,7 +1618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1624,7 +1631,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1639,7 +1646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1654,7 +1661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1669,7 +1676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -1684,7 +1691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1699,7 +1706,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1714,7 +1721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -1729,7 +1736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1744,7 +1751,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -1759,7 +1766,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
@@ -1774,7 +1781,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -1787,7 +1794,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
@@ -1800,7 +1807,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -1813,7 +1820,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
@@ -1828,7 +1835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
@@ -1843,7 +1850,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -1856,7 +1863,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
@@ -1873,7 +1880,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>59</v>
       </c>
@@ -1886,7 +1893,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>60</v>
       </c>
@@ -1901,7 +1908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
@@ -1916,7 +1923,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>65</v>
       </c>
@@ -1936,14 +1943,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -1951,7 +1958,7 @@
     <col min="5" max="5" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,7 +1975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1981,7 +1988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1994,7 +2001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2007,7 +2014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -2020,7 +2027,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -2033,7 +2040,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -2052,12 +2059,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="6" bestFit="1" customWidth="1"/>
@@ -2067,7 +2074,7 @@
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2084,7 +2091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2097,7 +2104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -2110,7 +2117,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="25.5">
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>69</v>
       </c>
@@ -2125,7 +2132,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5">
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -2140,7 +2147,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -2155,7 +2162,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
@@ -2170,7 +2177,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>76</v>
       </c>
@@ -2185,7 +2192,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>78</v>
       </c>
@@ -2198,7 +2205,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>79</v>
       </c>
@@ -2211,7 +2218,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>81</v>
       </c>
@@ -2224,7 +2231,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
@@ -2237,7 +2244,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -2250,7 +2257,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -2263,7 +2270,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>83</v>
       </c>
@@ -2276,7 +2283,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>84</v>
       </c>
@@ -2291,7 +2298,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>86</v>
       </c>
@@ -2308,7 +2315,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.5">
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>89</v>
       </c>
@@ -2329,12 +2336,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="6" bestFit="1" customWidth="1"/>
@@ -2344,7 +2351,7 @@
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2361,7 +2368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
@@ -2374,7 +2381,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>92</v>
       </c>
@@ -2389,7 +2396,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -2404,7 +2411,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>97</v>
       </c>
@@ -2419,7 +2426,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>100</v>
       </c>
@@ -2434,7 +2441,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>102</v>
       </c>
@@ -2449,7 +2456,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="38.25">
+    <row r="8" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>104</v>
       </c>
@@ -2464,7 +2471,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -2479,7 +2486,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>107</v>
       </c>
@@ -2494,7 +2501,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>109</v>
       </c>
@@ -2509,7 +2516,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>112</v>
       </c>
@@ -2524,7 +2531,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>115</v>
       </c>
@@ -2539,7 +2546,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>118</v>
       </c>
@@ -2554,7 +2561,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>120</v>
       </c>
@@ -2569,7 +2576,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>123</v>
       </c>
@@ -2584,7 +2591,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>125</v>
       </c>
@@ -2599,7 +2606,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>127</v>
       </c>
@@ -2614,7 +2621,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>129</v>
       </c>
@@ -2629,7 +2636,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>132</v>
       </c>
@@ -2644,7 +2651,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>135</v>
       </c>
@@ -2659,7 +2666,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>138</v>
       </c>
@@ -2674,7 +2681,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>140</v>
       </c>
@@ -2689,7 +2696,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>142</v>
       </c>
@@ -2704,7 +2711,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>144</v>
       </c>
@@ -2719,7 +2726,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>146</v>
       </c>
@@ -2734,7 +2741,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>149</v>
       </c>
@@ -2749,7 +2756,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>151</v>
       </c>
@@ -2764,7 +2771,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>153</v>
       </c>
@@ -2779,7 +2786,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>155</v>
       </c>
@@ -2794,7 +2801,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="25.5">
+    <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>157</v>
       </c>
@@ -2809,7 +2816,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>159</v>
       </c>
@@ -2824,7 +2831,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>161</v>
       </c>
@@ -2839,7 +2846,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>163</v>
       </c>
@@ -2854,7 +2861,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>165</v>
       </c>
@@ -2869,7 +2876,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>167</v>
       </c>
@@ -2884,7 +2891,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>169</v>
       </c>
@@ -2897,7 +2904,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>170</v>
       </c>
@@ -2910,7 +2917,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="45">
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>171</v>
       </c>
@@ -2925,7 +2932,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>173</v>
       </c>
@@ -2938,7 +2945,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="38.25">
+    <row r="41" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>174</v>
       </c>
@@ -2953,7 +2960,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>176</v>
       </c>
@@ -2966,7 +2973,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>177</v>
       </c>
@@ -2979,7 +2986,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>178</v>
       </c>
@@ -2992,7 +2999,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>179</v>
       </c>
@@ -3005,7 +3012,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>180</v>
       </c>
@@ -3020,7 +3027,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>182</v>
       </c>
@@ -3033,7 +3040,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>183</v>
       </c>
@@ -3046,7 +3053,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>184</v>
       </c>
@@ -3059,7 +3066,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>186</v>
       </c>
@@ -3072,7 +3079,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>187</v>
       </c>
@@ -3087,7 +3094,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" ht="30">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>188</v>
       </c>
@@ -3104,7 +3111,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>191</v>
       </c>
@@ -3119,7 +3126,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>193</v>
       </c>
@@ -3134,7 +3141,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>195</v>
       </c>
@@ -3147,7 +3154,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>196</v>
       </c>
@@ -3160,7 +3167,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>44</v>
       </c>
@@ -3173,7 +3180,7 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>46</v>
       </c>
@@ -3186,7 +3193,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>47</v>
       </c>
@@ -3199,7 +3206,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>197</v>
       </c>
@@ -3212,7 +3219,7 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>198</v>
       </c>
@@ -3227,7 +3234,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>200</v>
       </c>
@@ -3242,7 +3249,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>203</v>
       </c>
@@ -3257,7 +3264,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30">
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>205</v>
       </c>
@@ -3272,7 +3279,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>18</v>
       </c>
@@ -3285,7 +3292,7 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" ht="25.5">
+    <row r="66" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>207</v>
       </c>
@@ -3300,7 +3307,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>208</v>
       </c>
@@ -3313,7 +3320,7 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>209</v>
       </c>
@@ -3328,7 +3335,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>211</v>
       </c>
@@ -3343,7 +3350,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>213</v>
       </c>
@@ -3358,7 +3365,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>215</v>
       </c>
@@ -3373,7 +3380,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>217</v>
       </c>
@@ -3386,7 +3393,7 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>219</v>
       </c>
@@ -3399,7 +3406,7 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>220</v>
       </c>
@@ -3414,7 +3421,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>223</v>
       </c>
@@ -3449,12 +3456,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="5" bestFit="1" customWidth="1"/>
@@ -3464,7 +3471,7 @@
     <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3481,7 +3488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3494,7 +3501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>226</v>
       </c>
@@ -3509,7 +3516,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5">
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>228</v>
       </c>
@@ -3524,7 +3531,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5">
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>230</v>
       </c>
@@ -3539,7 +3546,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.5">
+    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>232</v>
       </c>
@@ -3554,7 +3561,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25.5">
+    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>234</v>
       </c>
@@ -3569,7 +3576,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -3582,7 +3589,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -3595,7 +3602,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -3608,7 +3615,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="25.5">
+    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>236</v>
       </c>
@@ -3623,7 +3630,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>238</v>
       </c>
@@ -3638,7 +3645,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>240</v>
       </c>
@@ -3653,7 +3660,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="25.5">
+    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>242</v>
       </c>
@@ -3668,7 +3675,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>244</v>
       </c>
@@ -3683,7 +3690,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="25.5">
+    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>246</v>
       </c>
@@ -3698,7 +3705,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5">
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>248</v>
       </c>
@@ -3713,7 +3720,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.5">
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>250</v>
       </c>
@@ -3730,7 +3737,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.5">
+    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>253</v>
       </c>
@@ -3747,7 +3754,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.5">
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>255</v>
       </c>
@@ -3773,12 +3780,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -3787,7 +3794,7 @@
     <col min="5" max="5" width="56.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3804,7 +3811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -3817,7 +3824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3830,7 +3837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="63.75">
+    <row r="4" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>257</v>
       </c>
@@ -3843,7 +3850,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5">
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>260</v>
       </c>
@@ -3856,7 +3863,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -3869,7 +3876,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
@@ -3882,7 +3889,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
@@ -3904,12 +3911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -3917,7 +3926,7 @@
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3934,7 +3943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -3945,7 +3954,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>84</v>
       </c>
@@ -3956,7 +3965,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -3967,7 +3976,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -3978,7 +3987,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
@@ -3989,7 +3998,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
@@ -4000,7 +4009,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -4011,7 +4020,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -4022,7 +4031,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>60</v>
       </c>
@@ -4033,7 +4042,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>32</v>
       </c>
@@ -4044,7 +4053,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
@@ -4055,7 +4064,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
@@ -4066,7 +4075,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>69</v>
       </c>
@@ -4077,7 +4086,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>97</v>
       </c>
@@ -4088,7 +4097,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>71</v>
       </c>
@@ -4099,7 +4108,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>79</v>
       </c>
@@ -4110,7 +4119,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>159</v>
       </c>
@@ -4121,7 +4130,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>161</v>
       </c>
@@ -4132,7 +4141,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>163</v>
       </c>
@@ -4143,7 +4152,7 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>165</v>
       </c>
@@ -4154,7 +4163,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>167</v>
       </c>
@@ -4165,7 +4174,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>81</v>
       </c>
@@ -4176,7 +4185,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>92</v>
       </c>
@@ -4187,7 +4196,7 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>236</v>
       </c>
@@ -4198,7 +4207,7 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>8</v>
       </c>
@@ -4209,7 +4218,7 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>56</v>
       </c>
@@ -4220,7 +4229,7 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>11</v>
       </c>
@@ -4231,7 +4240,7 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>65</v>
       </c>
@@ -4242,7 +4251,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>253</v>
       </c>
@@ -4253,7 +4262,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>238</v>
       </c>
@@ -4264,7 +4273,7 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>86</v>
       </c>
@@ -4275,7 +4284,7 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>257</v>
       </c>
@@ -4286,7 +4295,7 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>265</v>
       </c>
@@ -4297,7 +4306,7 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>266</v>
       </c>
@@ -4308,7 +4317,7 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>267</v>
       </c>
@@ -4319,7 +4328,7 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>268</v>
       </c>
@@ -4330,7 +4339,7 @@
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>269</v>
       </c>
@@ -4341,7 +4350,7 @@
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>270</v>
       </c>
@@ -4352,7 +4361,7 @@
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>271</v>
       </c>
@@ -4363,7 +4372,7 @@
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>272</v>
       </c>
@@ -4374,7 +4383,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>273</v>
       </c>
@@ -4385,7 +4394,7 @@
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>274</v>
       </c>
@@ -4396,7 +4405,7 @@
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>275</v>
       </c>
@@ -4407,7 +4416,7 @@
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>276</v>
       </c>
@@ -4418,7 +4427,7 @@
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>277</v>
       </c>
@@ -4429,7 +4438,7 @@
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>278</v>
       </c>
@@ -4440,7 +4449,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>279</v>
       </c>
@@ -4451,7 +4460,7 @@
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>280</v>
       </c>
@@ -4462,7 +4471,7 @@
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>281</v>
       </c>
@@ -4473,7 +4482,7 @@
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>282</v>
       </c>
@@ -4484,7 +4493,7 @@
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>283</v>
       </c>
@@ -4495,7 +4504,7 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>284</v>
       </c>
@@ -4506,7 +4515,7 @@
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>286</v>
       </c>
@@ -4517,7 +4526,7 @@
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>287</v>
       </c>
@@ -4528,7 +4537,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>288</v>
       </c>
@@ -4539,7 +4548,7 @@
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>290</v>
       </c>
@@ -4550,7 +4559,7 @@
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>291</v>
       </c>
@@ -4561,7 +4570,7 @@
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>292</v>
       </c>
@@ -4572,7 +4581,7 @@
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>42</v>
       </c>
@@ -4583,7 +4592,7 @@
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>293</v>
       </c>
@@ -4594,7 +4603,7 @@
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>294</v>
       </c>
@@ -4605,7 +4614,7 @@
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>295</v>
       </c>
@@ -4616,7 +4625,7 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>296</v>
       </c>
@@ -4627,7 +4636,7 @@
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>297</v>
       </c>
@@ -4638,7 +4647,7 @@
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>298</v>
       </c>
@@ -4649,7 +4658,7 @@
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>299</v>
       </c>
@@ -4660,7 +4669,7 @@
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>300</v>
       </c>
@@ -4671,7 +4680,7 @@
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>301</v>
       </c>
@@ -4682,7 +4691,7 @@
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
         <v>302</v>
       </c>
@@ -4693,7 +4702,7 @@
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>303</v>
       </c>
@@ -4704,7 +4713,7 @@
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>304</v>
       </c>
@@ -4715,7 +4724,7 @@
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>305</v>
       </c>
@@ -4726,7 +4735,7 @@
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>306</v>
       </c>
@@ -4737,7 +4746,7 @@
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
         <v>307</v>
       </c>
@@ -4748,7 +4757,7 @@
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
         <v>308</v>
       </c>
@@ -4759,7 +4768,7 @@
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
         <v>310</v>
       </c>
@@ -4770,7 +4779,7 @@
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>311</v>
       </c>
@@ -4781,7 +4790,7 @@
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>312</v>
       </c>
@@ -4792,7 +4801,7 @@
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>313</v>
       </c>
@@ -4803,7 +4812,7 @@
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>314</v>
       </c>
@@ -4814,7 +4823,7 @@
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>315</v>
       </c>
@@ -4825,7 +4834,7 @@
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>316</v>
       </c>
@@ -4836,7 +4845,7 @@
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>317</v>
       </c>
@@ -4847,7 +4856,7 @@
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>318</v>
       </c>
@@ -4858,7 +4867,7 @@
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>319</v>
       </c>
@@ -4869,7 +4878,7 @@
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>320</v>
       </c>
@@ -4880,7 +4889,7 @@
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>321</v>
       </c>
@@ -4891,7 +4900,7 @@
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>322</v>
       </c>
@@ -4902,7 +4911,7 @@
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>323</v>
       </c>
@@ -4913,7 +4922,7 @@
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>324</v>
       </c>
@@ -4924,7 +4933,7 @@
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>325</v>
       </c>
@@ -4935,7 +4944,7 @@
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>326</v>
       </c>
@@ -4946,7 +4955,7 @@
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>327</v>
       </c>
@@ -4957,7 +4966,7 @@
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>328</v>
       </c>
@@ -4968,7 +4977,7 @@
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>329</v>
       </c>
@@ -4979,7 +4988,7 @@
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>330</v>
       </c>
@@ -4990,7 +4999,7 @@
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>331</v>
       </c>
@@ -5001,7 +5010,7 @@
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>332</v>
       </c>
@@ -5012,7 +5021,7 @@
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>333</v>
       </c>
@@ -5023,7 +5032,7 @@
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
         <v>334</v>
       </c>
@@ -5034,7 +5043,7 @@
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>335</v>
       </c>
@@ -5045,7 +5054,7 @@
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
         <v>336</v>
       </c>
@@ -5056,7 +5065,7 @@
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>337</v>
       </c>
@@ -5067,7 +5076,7 @@
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>339</v>
       </c>
@@ -5078,7 +5087,7 @@
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>340</v>
       </c>
